--- a/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
+++ b/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010236</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票C</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>005310</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>广发电子信息传媒产业精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005310</t>
+          <t>010236</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票A</t>
+          <t>广发电子信息传媒产业精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.67</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.67</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
+++ b/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
+++ b/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
+++ b/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
@@ -941,12 +941,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
+++ b/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
+++ b/数据整理/stocks/A股/上证主板/603881-数据港.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501078</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7570</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005310</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1321</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010236</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -713,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005310</t>
+          <t>001411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票A</t>
+          <t>诺安创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0993</t>
+          <t>0.1770</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -751,35 +643,149 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010236</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票C</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -926,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,7 +953,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -977,32 +983,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>005310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>广发电子信息传媒产业精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>82.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1770</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1015,149 +1021,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>010236</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>广发电子信息传媒产业精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>82.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005496</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国都创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1172,96 +1064,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.91</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>